--- a/03_plots_and_tables/CDI_AGP.xlsx
+++ b/03_plots_and_tables/CDI_AGP.xlsx
@@ -387,7 +387,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>chao1</t>
+          <t>gini_index</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -401,10 +401,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.918288016628866e-47</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.918288016628866e-46</v>
       </c>
     </row>
     <row r="3">
@@ -424,16 +424,16 @@
         </is>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>9.097694160154613e-47</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>4.548847080077306e-46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fisher_alpha</t>
+          <t>chao1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -447,16 +447,16 @@
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2.692302410395441e-45</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>8.974341367984805e-45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gini_index</t>
+          <t>menhinick</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1.406622205069116e-44</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.516555512672791e-44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>margalef</t>
+          <t>fisher_alpha</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -493,16 +493,16 @@
         </is>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>8.065958035000743e-44</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.613191607000149e-43</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>menhinick</t>
+          <t>margalef</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -516,10 +516,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1.064779321401411e-43</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.774632202335685e-43</v>
       </c>
     </row>
     <row r="8">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>9.759969364996869e-21</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.394281337856696e-20</v>
       </c>
     </row>
     <row r="9">
@@ -562,10 +562,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>7.75175203222224e-12</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>9.6896900402778e-12</v>
       </c>
     </row>
     <row r="10">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="D10">
-        <v>4e-05</v>
+        <v>3.647992967017024e-05</v>
       </c>
       <c r="E10">
-        <v>4e-05</v>
+        <v>4.053325518907805e-05</v>
       </c>
     </row>
     <row r="11">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.99646</v>
+        <v>0.9964570138267135</v>
       </c>
       <c r="E11">
-        <v>0.99646</v>
+        <v>0.9964570138267135</v>
       </c>
     </row>
   </sheetData>
